--- a/biology/Médecine/Triadine/Triadine.xlsx
+++ b/biology/Médecine/Triadine/Triadine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La triadine (TRDN) est une protéine intervenant dans la libération du calcium induite par le calcium. Son gène est le TRDN situé sur le chromosome 6 humain.
 </t>
@@ -511,12 +523,14 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé au niveau des canaux calciques du réticulum endoplasmique des cellules musculaires squelettiques ou cardiaques[5]. Il en existe plusieurs isoformes secondaire à un épissage différent[6], l'une d'entre elles s'exprimant préférentiellement dans le cardiomyocyte[7]. Il intervient ainsi dans la régulation du calcium dans les cellules musculaires[8].
-Il se fixe sur le récepteur de la ryanodine, un canal calcique musculaire, ainsi qu'à la calséquestrine[9].
-Il interviendrait dans la structuration du réticulum endoplamique[10]. 
-Un ARN non codant, Trdn-as, intervient dans la synthèse des différentes isoformes de la protéine[11]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé au niveau des canaux calciques du réticulum endoplasmique des cellules musculaires squelettiques ou cardiaques. Il en existe plusieurs isoformes secondaire à un épissage différent, l'une d'entre elles s'exprimant préférentiellement dans le cardiomyocyte. Il intervient ainsi dans la régulation du calcium dans les cellules musculaires.
+Il se fixe sur le récepteur de la ryanodine, un canal calcique musculaire, ainsi qu'à la calséquestrine.
+Il interviendrait dans la structuration du réticulum endoplamique. 
+Un ARN non codant, Trdn-as, intervient dans la synthèse des différentes isoformes de la protéine. 
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutation de son gène peut entraîner un syndrome du QT long responsable de mort subite chez l'enfant[12]. Une autre mutation est responsable de tachycardie ventriculaire polymorphe catécholergique[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutation de son gène peut entraîner un syndrome du QT long responsable de mort subite chez l'enfant. Une autre mutation est responsable de tachycardie ventriculaire polymorphe catécholergique.
 </t>
         </is>
       </c>
